--- a/biology/Médecine/Maladie_de_Poncet/Maladie_de_Poncet.xlsx
+++ b/biology/Médecine/Maladie_de_Poncet/Maladie_de_Poncet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maladie de Poncet est une arthrite réactionnelle secondaire à une tuberculose. Elle porte le nom du médecin Antonin Poncet (1849-1913) qui l'a décrit. Elle se distingue d'une arthrite tuberculeuse par le fait que le bacille de Koch n'est pas retrouvé dans l'articulation[1].
-Il s'agit d'une maladie rare[2].
-Elle serait plus présente chez les porteurs des groupes HLA-DR3 et DR4 et pourrait témoigner d'une hypersensibilité à l'antigène bactérien[3].
-Elle s'améliore rapidement sous traitement antituberculeux[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maladie de Poncet est une arthrite réactionnelle secondaire à une tuberculose. Elle porte le nom du médecin Antonin Poncet (1849-1913) qui l'a décrit. Elle se distingue d'une arthrite tuberculeuse par le fait que le bacille de Koch n'est pas retrouvé dans l'articulation.
+Il s'agit d'une maladie rare.
+Elle serait plus présente chez les porteurs des groupes HLA-DR3 et DR4 et pourrait témoigner d'une hypersensibilité à l'antigène bactérien.
+Elle s'améliore rapidement sous traitement antituberculeux.
 </t>
         </is>
       </c>
